--- a/biology/Zoologie/Pimpla_seyrigi/Pimpla_seyrigi.xlsx
+++ b/biology/Zoologie/Pimpla_seyrigi/Pimpla_seyrigi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pimpla seyrigi est une espèce fossile d’insectes hyménoptères de la tribu des Pimplini, dans la grande famille des Ichneumonidae.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pimpla seyrigi est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotype R939+956 (empreinte et contre-empreinte), de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel). 
-Étymologie
-L'épithète spécifique seyrigi rend hommage à l'archéologue français contemporain Henri Seyrig (1895-1973).  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pimpla seyrigi est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -543,20 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 2] : 
-« Insecte de couleur brunâtre à ailes transparentes.
-Tête transversale, large subcarrée, avec deux gros yeux saillants ; ocelles non visibles ; en avant de la tête, deux petits renflements marquant la base des antennes ; antennes longues, formées d'articles allongés, plus ou moins distincts ; elles sont repliées le long du corps et atteignent l'extrémité de l'abdomen. Thorax ovale, segmentation mal conservée. Abdomen allongé, subcylindrique, légèrement renflé à l'arrière, premier article allongé, le huitième très court et arrondi ; segments couverts de petits tubercules serrés et obsolètes.
-Une patte est visible, allongée, finement velue, pas de cils visibles à l'extrémité du tibia ; tarse à cinq articles. Ailes conservées, mais se recouvrant en partie ; nervation (v. fig.) identique à celle du g. Pimpla ; l'aréole est large, presque triangulaire. »[1].
-Dimensions
-La longueur totale est de 8,5 mm, la longueur de la tête est de 1 mm et la largeur de 1,5 mm, la longueur du thorax est de 2,7 mmm la longueur de l'abdomen est de 5 mm, la longueur des ailes est de 6 mm et la largeur de 1,4 mm[1].
-Affinités
-« Se rapproche de Pimpla laetiventris CAM. d'Assam, mais en diffère par les antennes plus longues. »[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype R939+956 (empreinte et contre-empreinte), de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection Mieg du musée de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs (mine de sel). 
 </t>
         </is>
       </c>
@@ -582,13 +590,168 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique seyrigi rend hommage à l'archéologue français contemporain Henri Seyrig (1895-1973).  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pimpla_seyrigi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpla_seyrigi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Insecte de couleur brunâtre à ailes transparentes.
+Tête transversale, large subcarrée, avec deux gros yeux saillants ; ocelles non visibles ; en avant de la tête, deux petits renflements marquant la base des antennes ; antennes longues, formées d'articles allongés, plus ou moins distincts ; elles sont repliées le long du corps et atteignent l'extrémité de l'abdomen. Thorax ovale, segmentation mal conservée. Abdomen allongé, subcylindrique, légèrement renflé à l'arrière, premier article allongé, le huitième très court et arrondi ; segments couverts de petits tubercules serrés et obsolètes.
+Une patte est visible, allongée, finement velue, pas de cils visibles à l'extrémité du tibia ; tarse à cinq articles. Ailes conservées, mais se recouvrant en partie ; nervation (v. fig.) identique à celle du g. Pimpla ; l'aréole est large, presque triangulaire. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pimpla_seyrigi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpla_seyrigi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 8,5 mm, la longueur de la tête est de 1 mm et la largeur de 1,5 mm, la longueur du thorax est de 2,7 mmm la longueur de l'abdomen est de 5 mm, la longueur des ailes est de 6 mm et la largeur de 1,4 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pimpla_seyrigi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpla_seyrigi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Se rapproche de Pimpla laetiventris CAM. d'Assam, mais en diffère par les antennes plus longues. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pimpla_seyrigi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpla_seyrigi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le g. Pimpla est cosmopolite. »[1].
+« Le g. Pimpla est cosmopolite. ».
 </t>
         </is>
       </c>
